--- a/options-jul-2025.xlsx
+++ b/options-jul-2025.xlsx
@@ -63,7 +63,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -129,7 +129,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -450,7 +450,7 @@
     <col min="6" max="6" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>54033</v>
       </c>
@@ -481,7 +481,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="5">
-        <v>25569.229697488427</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E2" s="4">
         <v>54600</v>
@@ -490,7 +490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>54034</v>
       </c>
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E3" s="4">
         <v>54600</v>
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>54035</v>
       </c>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E4" s="4">
         <v>54700</v>
@@ -530,7 +530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
         <v>54036</v>
       </c>
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E5" s="4">
         <v>54700</v>
@@ -550,7 +550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
         <v>54037</v>
       </c>
@@ -561,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E6" s="4">
         <v>54800</v>
@@ -570,7 +570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4">
         <v>54038</v>
       </c>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E7" s="4">
         <v>54800</v>
@@ -590,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4">
         <v>54039</v>
       </c>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E8" s="4">
         <v>54900</v>
@@ -610,7 +610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4">
         <v>54040</v>
       </c>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E9" s="4">
         <v>54900</v>
@@ -630,7 +630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4">
         <v>54041</v>
       </c>
@@ -641,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E10" s="4">
         <v>55000</v>
@@ -650,7 +650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4">
         <v>54042</v>
       </c>
@@ -661,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E11" s="4">
         <v>55000</v>
@@ -670,7 +670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4">
         <v>54043</v>
       </c>
@@ -681,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E12" s="4">
         <v>55100</v>
@@ -690,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4">
         <v>54044</v>
       </c>
@@ -701,7 +701,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E13" s="4">
         <v>55100</v>
@@ -710,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4">
         <v>54045</v>
       </c>
@@ -721,7 +721,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E14" s="4">
         <v>55200</v>
@@ -730,7 +730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4">
         <v>54046</v>
       </c>
@@ -741,7 +741,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E15" s="4">
         <v>55200</v>
@@ -750,7 +750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4">
         <v>54047</v>
       </c>
@@ -761,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E16" s="4">
         <v>55300</v>
@@ -770,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4">
         <v>54048</v>
       </c>
@@ -781,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E17" s="4">
         <v>55300</v>
@@ -790,7 +790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4">
         <v>54049</v>
       </c>
@@ -801,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E18" s="4">
         <v>55400</v>
@@ -810,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4">
         <v>54050</v>
       </c>
@@ -821,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E19" s="4">
         <v>55400</v>
@@ -830,7 +830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4">
         <v>54051</v>
       </c>
@@ -841,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E20" s="4">
         <v>55500</v>
@@ -850,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4">
         <v>54053</v>
       </c>
@@ -861,7 +861,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E21" s="4">
         <v>55500</v>
@@ -870,7 +870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4">
         <v>54054</v>
       </c>
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E22" s="4">
         <v>55600</v>
@@ -890,7 +890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4">
         <v>54056</v>
       </c>
@@ -901,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E23" s="4">
         <v>55600</v>
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4">
         <v>54059</v>
       </c>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E24" s="4">
         <v>55700</v>
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4">
         <v>54060</v>
       </c>
@@ -941,7 +941,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E25" s="4">
         <v>55700</v>
@@ -950,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="4">
         <v>54061</v>
       </c>
@@ -961,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E26" s="4">
         <v>55800</v>
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4">
         <v>54062</v>
       </c>
@@ -981,7 +981,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E27" s="4">
         <v>55800</v>
@@ -990,7 +990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4">
         <v>54063</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E28" s="4">
         <v>55900</v>
@@ -1010,7 +1010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="4">
         <v>54066</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E29" s="4">
         <v>55900</v>
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="4">
         <v>54067</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E30" s="4">
         <v>56000</v>
@@ -1050,7 +1050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="4">
         <v>54068</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E31" s="4">
         <v>56000</v>
@@ -1070,7 +1070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="4">
         <v>54069</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E32" s="4">
         <v>56100</v>
@@ -1090,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="4">
         <v>54070</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E33" s="4">
         <v>56100</v>
@@ -1110,7 +1110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="4">
         <v>54071</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E34" s="4">
         <v>56200</v>
@@ -1130,7 +1130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="4">
         <v>54072</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E35" s="4">
         <v>56200</v>
@@ -1150,7 +1150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="4">
         <v>54073</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E36" s="4">
         <v>56300</v>
@@ -1170,7 +1170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="4">
         <v>54075</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E37" s="4">
         <v>56300</v>
@@ -1190,7 +1190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="4">
         <v>54076</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E38" s="4">
         <v>56400</v>
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E39" s="4">
         <v>56400</v>
@@ -1241,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E40" s="4">
         <v>56500</v>
@@ -1261,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E41" s="4">
         <v>56500</v>
@@ -1281,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E42" s="4">
         <v>56600</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E43" s="4">
         <v>56600</v>
@@ -1321,7 +1321,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E44" s="4">
         <v>56700</v>
@@ -1341,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E45" s="4">
         <v>56700</v>
@@ -1361,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E46" s="4">
         <v>56800</v>
@@ -1381,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E47" s="4">
         <v>56800</v>
@@ -1401,7 +1401,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E48" s="4">
         <v>56900</v>
@@ -1421,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E49" s="4">
         <v>56900</v>
@@ -1441,7 +1441,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E50" s="4">
         <v>57000</v>
@@ -1461,7 +1461,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E51" s="4">
         <v>57000</v>
@@ -1481,7 +1481,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E52" s="4">
         <v>57100</v>
@@ -1501,7 +1501,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E53" s="4">
         <v>57100</v>
@@ -1521,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E54" s="4">
         <v>57200</v>
@@ -1541,7 +1541,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E55" s="4">
         <v>57200</v>
@@ -1561,7 +1561,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E56" s="4">
         <v>57300</v>
@@ -1581,7 +1581,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E57" s="4">
         <v>57300</v>
@@ -1601,7 +1601,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E58" s="4">
         <v>57400</v>
@@ -1621,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E59" s="4">
         <v>57400</v>
@@ -1641,7 +1641,7 @@
         <v>7</v>
       </c>
       <c r="D60" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E60" s="4">
         <v>57500</v>
@@ -1661,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="D61" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E61" s="4">
         <v>57500</v>
@@ -1681,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E62" s="4">
         <v>57600</v>
@@ -1701,7 +1701,7 @@
         <v>7</v>
       </c>
       <c r="D63" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E63" s="4">
         <v>57600</v>
@@ -1721,7 +1721,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E64" s="4">
         <v>57700</v>
@@ -1741,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="D65" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E65" s="4">
         <v>57700</v>
@@ -1761,7 +1761,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E66" s="4">
         <v>57800</v>
@@ -1781,7 +1781,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E67" s="4">
         <v>57800</v>
@@ -1801,7 +1801,7 @@
         <v>7</v>
       </c>
       <c r="D68" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E68" s="4">
         <v>57900</v>
@@ -1821,7 +1821,7 @@
         <v>7</v>
       </c>
       <c r="D69" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E69" s="4">
         <v>57900</v>
@@ -1841,7 +1841,7 @@
         <v>7</v>
       </c>
       <c r="D70" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E70" s="4">
         <v>58000</v>
@@ -1861,7 +1861,7 @@
         <v>7</v>
       </c>
       <c r="D71" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E71" s="4">
         <v>58000</v>
@@ -1881,7 +1881,7 @@
         <v>7</v>
       </c>
       <c r="D72" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E72" s="4">
         <v>58100</v>
@@ -1901,7 +1901,7 @@
         <v>7</v>
       </c>
       <c r="D73" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E73" s="4">
         <v>58100</v>
@@ -1921,7 +1921,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E74" s="4">
         <v>58200</v>
@@ -1941,7 +1941,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E75" s="4">
         <v>58200</v>
@@ -1961,7 +1961,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E76" s="4">
         <v>58300</v>
@@ -1981,7 +1981,7 @@
         <v>7</v>
       </c>
       <c r="D77" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E77" s="4">
         <v>58300</v>
@@ -2001,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="D78" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E78" s="4">
         <v>58400</v>
@@ -2021,7 +2021,7 @@
         <v>7</v>
       </c>
       <c r="D79" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E79" s="4">
         <v>58400</v>
@@ -2041,7 +2041,7 @@
         <v>7</v>
       </c>
       <c r="D80" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E80" s="4">
         <v>58500</v>
@@ -2061,7 +2061,7 @@
         <v>7</v>
       </c>
       <c r="D81" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E81" s="4">
         <v>58500</v>
@@ -2081,7 +2081,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E82" s="4">
         <v>58600</v>
@@ -2101,7 +2101,7 @@
         <v>7</v>
       </c>
       <c r="D83" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E83" s="4">
         <v>58600</v>
@@ -2121,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="D84" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E84" s="4">
         <v>58700</v>
@@ -2141,7 +2141,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E85" s="4">
         <v>58700</v>
@@ -2161,7 +2161,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E86" s="4">
         <v>58800</v>
@@ -2181,7 +2181,7 @@
         <v>7</v>
       </c>
       <c r="D87" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E87" s="4">
         <v>58800</v>
@@ -2201,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="D88" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E88" s="4">
         <v>58900</v>
@@ -2221,7 +2221,7 @@
         <v>7</v>
       </c>
       <c r="D89" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E89" s="4">
         <v>58900</v>
@@ -2241,7 +2241,7 @@
         <v>7</v>
       </c>
       <c r="D90" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E90" s="4">
         <v>59000</v>
@@ -2261,7 +2261,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E91" s="4">
         <v>59000</v>
@@ -2281,7 +2281,7 @@
         <v>7</v>
       </c>
       <c r="D92" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E92" s="4">
         <v>59100</v>
@@ -2301,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="D93" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E93" s="4">
         <v>59100</v>
@@ -2321,7 +2321,7 @@
         <v>7</v>
       </c>
       <c r="D94" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E94" s="4">
         <v>59200</v>
@@ -2341,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="D95" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E95" s="4">
         <v>59200</v>
@@ -2361,7 +2361,7 @@
         <v>7</v>
       </c>
       <c r="D96" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E96" s="4">
         <v>59300</v>
@@ -2381,7 +2381,7 @@
         <v>7</v>
       </c>
       <c r="D97" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E97" s="4">
         <v>59300</v>
@@ -2401,7 +2401,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E98" s="4">
         <v>59400</v>
@@ -2421,7 +2421,7 @@
         <v>7</v>
       </c>
       <c r="D99" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E99" s="4">
         <v>59400</v>
@@ -2441,7 +2441,7 @@
         <v>7</v>
       </c>
       <c r="D100" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E100" s="4">
         <v>59500</v>
@@ -2461,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="D101" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E101" s="4">
         <v>59500</v>
@@ -2481,7 +2481,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E102" s="4">
         <v>59600</v>
@@ -2501,7 +2501,7 @@
         <v>7</v>
       </c>
       <c r="D103" s="5">
-        <v>25569.22969721065</v>
+        <v>25569.229699074072</v>
       </c>
       <c r="E103" s="4">
         <v>59600</v>
